--- a/iris.xlsx
+++ b/iris.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="iris" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
